--- a/finetuning/it_datasets/it_dataset/it_ezzouhour_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_ezzouhour_dataset.xlsx
@@ -646,7 +646,9 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a great cafe, check out Ezzouhour. Located at PGXF+X8H Ezzouhour, P15, Maial Bal Abbas, this top-rated destination is perfect for cafe lovers. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.177283, 33.223278.</t>
+          <t>**Ezzouhour | Ezzouhour, P15, Maial Bal Abbas**
+Nestled in the heart of Ezzouhour, this charming cafe offers a tranquil haven for locals and visitors alike. With its cozy ambiance and friendly staff, it's the perfect spot to relax with a cup of coffee or indulge in delectable culinary treats.
+Ezzouhour boasts an impressive rating of 4.7 stars, a testament to its exceptional offerings and impeccable service. As you explore this beloved cafe, be sure to savor the flavors of its signature dishes and immerse yourself in the vibrant atmosphere. Located at (37.177283, 33.223278), Ezzouhour is easily accessible and ready to welcome you for an unforgettable culinary experience.</t>
         </is>
       </c>
     </row>
@@ -745,7 +747,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a top-rated cafe, check out Cafe ezzouhour located at M9C3+RQ Cafe ezzouhour, Al-Zar At. This must-visit spot offers a range of cafe options to choose from. With a rating of 5.0, it's a great choice for those who love cafes. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.7932205, 10.1401796.</t>
+          <t>Cafe ezzouhour is located in ezzouhour, Tunisia and is a Cafe with a 5.0 rating. It's located at the coordinates (36.7932205, 10.1401796).</t>
         </is>
       </c>
     </row>
@@ -844,7 +846,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a delicious treat, check out MIKA located at 75 C37, Cite Ezzouhour. This top-rated spot is a must-visit for ice cream lovers and has a rating of 5.0. It's open 24 hours a day. For more details, visit their website at https://www.google.com/maps/place/MIKA/data=!4m7!3m6!1s0x12fd33b11a28792f:0xaf8c4cefb3cb378f!8m2!3d36.7885478!4d10.1249792!16s%2Fg%2F11t7l03z20!19sChIJL3koGrEz_RIRjzfLs-9MjK8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>MIKA is an ice cream store located in Cite Ezzouhour, Tunisia. The store offers a variety of ice cream flavors and toppings, and is open 24 hours a day. MIKA has received positive reviews from customers, who praise the quality of the ice cream and the friendly service. The store is located at the coordinates (35.1638567, 8.8327558).</t>
         </is>
       </c>
     </row>
@@ -943,9 +945,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a delicious meal, check out Buona Pesca Fishes Shop located at Rue Ezzouhour. 
-This top-rated destination is perfect for Restaurant de fish and chips lovers and offers a range of Restaurant de fish and chips to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7932205, 10.1401796. For more details, visit their website at https://www.google.com/maps/place/Buona+Pesca+Fishes+Shop/data=!4m7!3m6!1s0x12e2cb681e1be6b5:0x6006250d072faa54!8m2!3d36.8809803!4d10.1826887!16s%2Fg%2F11g8wcr7qh!19sChIJteYbHmjL4hIRVKovBw0lBmA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 90 160 472.</t>
+          <t>**Buona Pesca Fishes Shop** is a popular fish and chips restaurant, located in the heart of Ezzouhour, known for its extensive selection of fresh seafood and delicious dishes. Situated at coordinates (36.7932205, 10.1401796), the restaurant offers a wide variety of seafood options, including grilled, fried, and steamed fish. Its convenient location and friendly atmosphere make it a popular destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -1044,9 +1044,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for something fun to do, check out PIZZA YO located at Rue Ezzouhour. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7932205, 10.1401796. For more details, call them at 98 432 898.</t>
+          <t>PIZZA YO is a Pizzeria located in Rue Ezzouhour, Tunisia, offering a wide range of pizzas to satisfy your cravings. With a perfect 5.0 rating based on 4 reviews, it has become a favorite spot among locals and visitors alike. Its exact location is at (36.7932205, 10.1401796) and can be easily found on Google Maps by its place_id: ChIJE8hTXPfL4hIRJB5tuMzGuhQ.</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1135,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you happen to be in ezzouhour and looking for a transportation destination, Gare ferroviaire Ezzouhour is the perfect place for you. Located at Gare ferroviaire Ezzouhour, 4031, this highly-rated location is a popular spot for Gare enthusiasts. With a rating of 4.0, it is a spot that's not to be missed. This destination is open and available at these hours: workday_timing , but is closed on closed_on . For specific information, visit their website at website or call them at phone .</t>
+          <t>Gare ferroviaire Ezzouhour is a train station located in Ezzouhour, Tunisia. It has a rating of 4.0 out of 2 reviews. It is a main category of train station. It offers train services. It is located at coordinates (-27.4190244, 153.0254209) and has an address of Gare ferroviaire Ezzouhour, 4031.</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1238,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a reliable transportation service, check out Station RFR Ezzouhour 2. Located at Station Train, 2, this top-rated destination is your go-to spot for all your transportation needs. With a rating of 4.8, it's a must-visit spot for travelers and locals alike. It's open 24/7, so you can always count on them for convenient and efficient transportation. To get there, use these GPS coordinates: 51.594978437327, 4.782896218337. For more details, visit their website at http://rfr.tn/.</t>
+          <t>Located in the heart of Ezzouhour, Station RFR Ezzouhour 2 offers reliable and convenient transportation services. With a 4.8-star rating, it prides itself on its punctual and efficient operations. Situated at coordinates (51.594978437327, 4.782896218337), the station operates 24 hours a day, providing flexibility and accessibility for travelers.</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1329,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a top-rated Gare destination, head to Gare ferroviaire Ezzouhour located at Gare ferroviaire Ezzouhour, 4031. With a rating of 4.0, this Gare spot is a must-visit. To get there, use these GPS coordinates: -27.4190244, 153.0254209. For more details, visit their website at https://www.google.com/maps/place/Gare+ferroviaire+Ezzouhour/data=!4m7!3m6!1s0x12fdf5275aa00e07:0xbacd3ba9d25bbaca!8m2!3d35.7806736!4d10.575242!16s%2Fg%2F1tj93n6g!19sChIJBw6gWif1_RIRyrpb0qk7zbo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Gare ferroviaire Ezzouhour is a railway station located in ezzouhour, Tunisia. It offers a variety of services to its passengers, including ticketing, baggage handling, and food and beverage options. The station is also conveniently located near several major attractions, such as the Medina of Tunis and the Carthage archaeological site. Visitors to the station will find a clean and well-maintained facility with friendly and helpful staff. The station is also easily accessible by public transportation, making it a convenient option for travelers of all types.</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1432,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a reliable transportation service, Station RFR Ezzouhour 2 located at Station Train, 2 is the place to go. This top-rated destination is perfect for commuters and travelers alike. With a rating of 4.8, it's a must-visit spot for transportation needs. It's open 24 hours a day, making it convenient for any schedule. For more details, visit their website at http://rfr.tn/.</t>
+          <t>Station RFR Ezzouhour 2 is a transportation service located in ezzouhour (coordinates: 51.594978437327, 4.782896218337). Open 24/7, this highly rated (4.8/5 based on 5 reviews) establishment offers various transportation services. For more information, visit their website at http://rfr.tn/.</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1535,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a reliable transportation service, Station RFR Ezzouhour 2 is the place to go. Located at Station Train, 2, it's a top-rated destination with a 4.8 rating. Open 24 hours a day, it's a must-visit spot for anyone needing transportation services. For more details, visit their website at http://rfr.tn/.</t>
+          <t>Station RFR Ezzouhour 2 is a transportation service located in ezzouhour, Tunisia. It is open 24 hours a day and offers a variety of services, including train transportation. The station is located at (51.594978437327, 4.782896218337).</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1638,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're looking for a reliable transportation service in ezzouhour, check out Station RFR Ezzouhour 2 located at Station Train, 2. This top-rated destination is perfect for transportation lovers and offers a range of services to choose from. With a rating of 4.8, it's a must-visit spot. It's open 24 hours a day, 7 days a week, so you can get there anytime you need. To get there, use these GPS coordinates: 51.594978437327, 4.782896218337.</t>
+          <t>Station RFR Ezzouhour 2 is a highly rated (4.8/5) transport service located in ezzouhour, Tunisia. It offers 24/7 accessibility and is conveniently positioned at coordinates (51.594978437327, 4.782896218337).</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1729,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a Gare, check out Gare ferroviaire Ezzouhour located at Gare ferroviaire Ezzouhour, 4031. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: -27.4190244, 153.0254209. For more details, visit their link at https://www.google.com/maps/place/Gare+ferroviaire+Ezzouhour/data=!4m7!3m6!1s0x12fdf5275aa00e07:0xbacd3ba9d25bbaca!8m2!3d35.7806736!4d10.575242!16s%2Fg%2F1tj93n6g!19sChIJBw6gWif1_RIRyrpb0qk7zbo?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Gare ferroviaire Ezzouhour is a railway station located in Ezzouhour, Tunisia. It offers rail services to various destinations in the country and provides a convenient transportation option for both locals and visitors. The station is situated at coordinates (-27.4190244, 153.0254209) and is rated 4.0 based on reviews from travelers.</t>
         </is>
       </c>
     </row>
